--- a/aoiConditions/train2Block21.xlsx
+++ b/aoiConditions/train2Block21.xlsx
@@ -25,25 +25,25 @@
     <t>trainingaudio/21_papika1.wav</t>
   </si>
   <si>
+    <t>trainingaudio/12_pokika3.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/20_tatito1.wav</t>
   </si>
   <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika3.wav</t>
+    <t>trainingaudio/04_kitoti2.wav</t>
   </si>
   <si>
     <t>pngimages/21_cheese.png</t>
   </si>
   <si>
+    <t>pngimages/12_pie.png</t>
+  </si>
+  <si>
     <t>pngimages/20_pizza.png</t>
   </si>
   <si>
-    <t>pngimages/16_icecream.png</t>
-  </si>
-  <si>
-    <t>pngimages/12_pie.png</t>
+    <t>pngimages/04_ladder.png</t>
   </si>
 </sst>
 </file>
